--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB3DAA-1837-B04A-88D0-B25B4D7DCDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66848A5-0342-F347-8981-FD55A65CD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
+    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,51 @@
   </si>
   <si>
     <t>kaggle:0.46071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.459579 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.901033 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.455</t>
+  </si>
+  <si>
+    <t>Val Acc: 0.454529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.923402 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>self.block = nn.Sequential(</t>
+  </si>
+  <si>
+    <t>nn.Linear(input_dim, 1024),</t>
+  </si>
+  <si>
+    <t>nn.ReLU(),</t>
+  </si>
+  <si>
+    <t>nn.Linear(1024, 1024),</t>
+  </si>
+  <si>
+    <t>nn.Linear(1024, output_dim),</t>
+  </si>
+  <si>
+    <t>kaggle:0.45862</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,47 +468,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="157" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66848A5-0342-F347-8981-FD55A65CD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098F52D-9C8D-3F4C-812D-B130F0D2877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,42 @@
   </si>
   <si>
     <t>kaggle:0.45862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.480644 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.772230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.469427 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.817974 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.469</t>
+  </si>
+  <si>
+    <t>nn.Linear(input_dim, 1700),</t>
+  </si>
+  <si>
+    <t>nn.Linear(1700, 1700),</t>
+  </si>
+  <si>
+    <t>nn.Linear(1700, output_dim),</t>
+  </si>
+  <si>
+    <t>kaggle:0.47341</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,108 +504,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="D10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="D13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="D14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="D15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="D16" t="s">
         <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="4:4">

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098F52D-9C8D-3F4C-812D-B130F0D2877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C43DBC-4862-6A4B-90EA-368CF5C55E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
+    <workbookView xWindow="3600" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,32 @@
   </si>
   <si>
     <t>kaggle:0.47341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.718025 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 0.879585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.680288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.016296 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concat_nframes = 11 </t>
+  </si>
+  <si>
+    <t>kaggle:0.68301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,15 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,8 +559,11 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,8 +573,11 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -555,8 +587,11 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -566,8 +601,11 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -577,8 +615,11 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -588,107 +629,137 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
       <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:10">
       <c r="D18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="4:4">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
       <c r="D19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:10">
       <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:10">
       <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:10">
       <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:10">
       <c r="D23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:10">
       <c r="D24" t="s">
         <v>13</v>
       </c>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C43DBC-4862-6A4B-90EA-368CF5C55E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B986698-5FB0-184E-9809-37851E54BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
+    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,37 @@
   </si>
   <si>
     <t>kaggle:0.68301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size = 512-&gt;256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concat_nframes = 1-&gt;11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.739507 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 0.803598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.684901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.005684 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.68778</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +579,14 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -562,8 +599,11 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -576,8 +616,11 @@
       <c r="J3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -590,8 +633,11 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -604,8 +650,11 @@
       <c r="J5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -618,8 +667,11 @@
       <c r="J6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -632,8 +684,11 @@
       <c r="J7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -643,8 +698,11 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -654,8 +712,11 @@
       <c r="J10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -665,8 +726,11 @@
       <c r="J11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -676,8 +740,11 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -687,8 +754,11 @@
       <c r="J13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -698,8 +768,11 @@
       <c r="J14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -709,8 +782,11 @@
       <c r="J15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -720,46 +796,55 @@
       <c r="J16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="4:10">
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13">
       <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:13">
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="4:10">
+    <row r="19" spans="4:13">
       <c r="D19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:13">
       <c r="D20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="4:10">
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13">
       <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="4:13">
       <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:10">
+    <row r="23" spans="4:13">
       <c r="D23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:10">
+    <row r="24" spans="4:13">
       <c r="D24" t="s">
         <v>13</v>
       </c>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B986698-5FB0-184E-9809-37851E54BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA37E8-50B9-8E4B-8335-1E1D12D89A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,190 @@
   </si>
   <si>
     <t>kaggle:0.68778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.455709 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.915116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.940309 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.449753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.482148 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.794364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.466094 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.858925 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.481376 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.773847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.469442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.824068 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.481980 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.768578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.817629 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.471407 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.Linear(input_dim, 2000),</t>
+  </si>
+  <si>
+    <t>nn.Linear(2000, 2000),</t>
+  </si>
+  <si>
+    <t>nn.Linear(2000, output_dim),</t>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.597114 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.317040 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.569245 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.429359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.660662 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 1.083270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.615788 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.265179 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.616</t>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.709422 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.912091 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.646299 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.167413 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.646</t>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Acc: 0.792471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.645469 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.685460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.091419 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.69015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +769,38 @@
       <c r="M1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>7</v>
+      </c>
+      <c r="V1">
+        <v>8</v>
+      </c>
+      <c r="Y1">
+        <v>9</v>
+      </c>
+      <c r="AB1">
+        <v>10</v>
+      </c>
+      <c r="AE1">
+        <v>11</v>
+      </c>
+      <c r="AH1">
+        <v>12</v>
+      </c>
+      <c r="AK1">
+        <v>13</v>
+      </c>
+      <c r="AN1">
+        <v>14</v>
+      </c>
+      <c r="AQ1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,8 +816,32 @@
       <c r="M2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -619,8 +857,32 @@
       <c r="M3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -636,8 +898,32 @@
       <c r="M4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -653,8 +939,32 @@
       <c r="M5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -670,8 +980,29 @@
       <c r="M6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -687,8 +1018,11 @@
       <c r="M7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="AN7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -701,8 +1035,38 @@
       <c r="M9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -715,8 +1079,38 @@
       <c r="M10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -729,8 +1123,38 @@
       <c r="M11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -743,8 +1167,38 @@
       <c r="M12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -757,8 +1211,38 @@
       <c r="M13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -771,8 +1255,38 @@
       <c r="M14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -785,8 +1299,38 @@
       <c r="M15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -799,13 +1343,73 @@
       <c r="M16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="4:13">
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:43">
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="4:13">
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:43">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -815,37 +1419,125 @@
       <c r="M18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="4:13">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:43">
       <c r="D19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="4:13">
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:43">
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="4:13">
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="4:43">
       <c r="D21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="4:13">
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:43">
       <c r="D22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="4:13">
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:43">
       <c r="D23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="4:13">
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:43">
       <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:43">
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="4:43">
+      <c r="P26" t="s">
         <v>13</v>
       </c>
     </row>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA37E8-50B9-8E4B-8335-1E1D12D89A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F662197-097B-CD40-B7F9-44F72593F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,36 @@
   </si>
   <si>
     <t>kaggle:0.69015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.811910 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.585453 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.690005 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.117624</t>
+  </si>
+  <si>
+    <t>kaggle:0.69513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ5" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AX19" sqref="AX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,8 +829,14 @@
       <c r="AQ1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AT1">
+        <v>16</v>
+      </c>
+      <c r="AW1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,8 +876,14 @@
       <c r="AN2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:43">
+      <c r="AQ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -881,8 +923,11 @@
       <c r="AN3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:43">
+      <c r="AQ3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -922,8 +967,11 @@
       <c r="AN4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
+      <c r="AQ4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,8 +1011,11 @@
       <c r="AN5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:43">
+      <c r="AQ5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1001,8 +1052,11 @@
       <c r="AH6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:43">
+      <c r="AQ6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1021,8 +1075,11 @@
       <c r="AN7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:43">
+      <c r="AQ7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1065,8 +1122,14 @@
       <c r="AQ9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:43">
+      <c r="AT9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -1109,8 +1172,14 @@
       <c r="AQ10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AT10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -1153,8 +1222,14 @@
       <c r="AQ11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AT11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1272,14 @@
       <c r="AQ12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:43">
+      <c r="AT12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -1241,8 +1322,14 @@
       <c r="AQ13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
+      <c r="AT13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -1285,8 +1372,14 @@
       <c r="AQ14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:43">
+      <c r="AT14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1329,8 +1422,14 @@
       <c r="AQ15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="AT15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -1373,8 +1472,14 @@
       <c r="AQ16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="4:43">
+      <c r="AT16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:49">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -1408,8 +1513,14 @@
       <c r="AQ17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="4:43">
+      <c r="AT17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:49">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -1449,8 +1560,14 @@
       <c r="AQ18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="4:43">
+      <c r="AT18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:49">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:43">
+    <row r="20" spans="4:49">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -1492,8 +1609,14 @@
       <c r="AQ20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="4:43">
+      <c r="AT20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="4:49">
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:43">
+    <row r="22" spans="4:49">
       <c r="D22" t="s">
         <v>18</v>
       </c>
@@ -1514,8 +1637,11 @@
       <c r="S22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="4:43">
+      <c r="AW22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:49">
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:43">
+    <row r="24" spans="4:49">
       <c r="D24" t="s">
         <v>13</v>
       </c>
@@ -1531,12 +1657,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="4:43">
+    <row r="25" spans="4:49">
       <c r="P25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="4:43">
+    <row r="26" spans="4:49">
       <c r="P26" t="s">
         <v>13</v>
       </c>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F662197-097B-CD40-B7F9-44F72593F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9BD9D3-BA2F-0547-91D6-5E39775045C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="117">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,64 @@
   </si>
   <si>
     <t>kaggle:0.69513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size = 512-&gt;128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.832848 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.511092 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.690064 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.187342</t>
+  </si>
+  <si>
+    <t>saving model with acc 0.695</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.5),</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.4),</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.3),</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.763267 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.742039 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.700502 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.006526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.70170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,15 +833,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:AW26"/>
+  <dimension ref="A1:BC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ5" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AX19" sqref="AX19"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,8 +893,14 @@
       <c r="AW1">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:49">
+      <c r="AZ1">
+        <v>18</v>
+      </c>
+      <c r="BC1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -882,8 +946,14 @@
       <c r="AT2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="AW2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -926,8 +996,14 @@
       <c r="AQ3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:49">
+      <c r="AW3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -970,8 +1046,14 @@
       <c r="AQ4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:49">
+      <c r="AW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1096,14 @@
       <c r="AQ5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:49">
+      <c r="AW5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1055,8 +1143,14 @@
       <c r="AQ6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="AW6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1078,8 +1172,11 @@
       <c r="AQ7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="AZ7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1128,8 +1225,14 @@
       <c r="AW9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:49">
+      <c r="AZ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -1178,8 +1281,14 @@
       <c r="AW10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:49">
+      <c r="AZ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -1228,8 +1337,14 @@
       <c r="AW11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="AZ11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -1278,8 +1393,14 @@
       <c r="AW12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="AZ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -1328,8 +1449,14 @@
       <c r="AW13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:49">
+      <c r="AZ13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -1378,8 +1505,14 @@
       <c r="AW14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:49">
+      <c r="AZ14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1428,8 +1561,14 @@
       <c r="AW15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:49">
+      <c r="AZ15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -1478,8 +1617,14 @@
       <c r="AW16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="4:49">
+      <c r="AZ16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="4:55">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -1519,8 +1664,14 @@
       <c r="AW17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="4:49">
+      <c r="AZ17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="4:55">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1717,14 @@
       <c r="AW18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="4:49">
+      <c r="AZ18" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:55">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -1577,8 +1734,11 @@
       <c r="S19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="4:49">
+      <c r="BC19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="4:55">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -1615,8 +1775,14 @@
       <c r="AW20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="4:49">
+      <c r="AZ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="4:55">
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -1626,8 +1792,11 @@
       <c r="S21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="4:49">
+      <c r="BC21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:55">
       <c r="D22" t="s">
         <v>18</v>
       </c>
@@ -1640,8 +1809,14 @@
       <c r="AW22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="4:49">
+      <c r="AZ22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:55">
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1649,22 +1824,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:49">
+    <row r="24" spans="4:55">
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="P24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="4:49">
+      <c r="BC24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="4:55">
       <c r="P25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="4:49">
+    <row r="26" spans="4:55">
       <c r="P26" t="s">
         <v>13</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9BD9D3-BA2F-0547-91D6-5E39775045C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C81E8-9FFC-B84F-BD88-7EA237F1451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,25 @@
   <si>
     <t>kaggle:0.70170</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.665420 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.095716 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.696444 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.971535 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.696</t>
   </si>
 </sst>
 </file>
@@ -833,15 +852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:BC26"/>
+  <dimension ref="A1:BF26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8"/>
+      <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="BC1">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:55">
+      <c r="BF1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="AZ2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:55">
+      <c r="BC2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1002,8 +1027,11 @@
       <c r="AZ3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:55">
+      <c r="BC3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1080,11 @@
       <c r="AZ4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:55">
+      <c r="BC4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1102,8 +1133,11 @@
       <c r="AZ5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:55">
+      <c r="BC5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="AZ6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:55">
+      <c r="BC6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:58">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:58">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:58">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1381,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:58">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:58">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:58">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:58">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:58">
       <c r="D16" t="s">
         <v>17</v>
       </c>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C81E8-9FFC-B84F-BD88-7EA237F1451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77430490-8D74-E745-87E5-F376B8C79918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out of RAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>saving model with acc 0.693</t>
   </si>
   <si>
@@ -489,6 +485,204 @@
   </si>
   <si>
     <t>saving model with acc 0.696</t>
+  </si>
+  <si>
+    <t>nn.BatchNorm1d(2000),</t>
+  </si>
+  <si>
+    <t>nn.BatchNorm1d(output_dim),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.653466 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.117450 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.692618 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.970238 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Acc: 0.777750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.671228 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.714619 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.927820 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.715</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.1),</t>
+  </si>
+  <si>
+    <t>nn.Linear(input_dim, 3000),</t>
+  </si>
+  <si>
+    <t>nn.BatchNorm1d(3000),</t>
+  </si>
+  <si>
+    <t>nn.Linear(3000, 3000),</t>
+  </si>
+  <si>
+    <t>nn.Linear(3000, output_dim),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.784613 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.677592 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.696578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.034475 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.659875 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.091520 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.698050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.953398 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.698</t>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Acc: 0.749635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.698490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.006426 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.801880 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.782576 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.656405 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.716594 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.926369 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.714206 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.898101 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.718981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.882621 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.791455 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.652885 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.705334 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.015496 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.705</t>
+  </si>
+  <si>
+    <t>concat_nframes = 1-&gt;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.728534 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.853623 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.729231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.851704 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.73128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -852,15 +1046,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:BF26"/>
+  <dimension ref="A1:CG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="BC7" sqref="BC7"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="CD8" sqref="CD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +1115,35 @@
       <c r="BF1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="BI1">
+        <v>21</v>
+      </c>
+      <c r="BL1">
+        <v>22</v>
+      </c>
+      <c r="BO1">
+        <v>23</v>
+      </c>
+      <c r="BR1">
+        <v>24</v>
+      </c>
+      <c r="BU1">
+        <v>25</v>
+      </c>
+      <c r="BX1">
+        <v>24</v>
+      </c>
+      <c r="CA1">
+        <v>25</v>
+      </c>
+      <c r="CD1">
+        <v>26</v>
+      </c>
+      <c r="CG1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -963,22 +1184,46 @@
         <v>88</v>
       </c>
       <c r="AQ2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT2" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="AW2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BC2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+        <v>116</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1019,19 +1264,46 @@
         <v>89</v>
       </c>
       <c r="AQ3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>138</v>
       </c>
       <c r="AW3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BC3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+        <v>117</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1072,19 +1344,46 @@
         <v>90</v>
       </c>
       <c r="AQ4" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>139</v>
       </c>
       <c r="AW4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AZ4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BC4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
+        <v>118</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,19 +1424,46 @@
         <v>91</v>
       </c>
       <c r="AQ5" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>140</v>
       </c>
       <c r="AW5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AZ5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BC5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+        <v>119</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>160</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1175,19 +1501,46 @@
         <v>84</v>
       </c>
       <c r="AQ6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>141</v>
       </c>
       <c r="AW6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AZ6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BC6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
+        <v>120</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1207,13 +1560,16 @@
         <v>92</v>
       </c>
       <c r="AQ7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
+        <v>115</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1268,8 +1624,38 @@
       <c r="BC9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:58">
+      <c r="BF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -1324,8 +1710,38 @@
       <c r="BC10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:58">
+      <c r="BF10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>64</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>64</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -1378,10 +1794,40 @@
         <v>16</v>
       </c>
       <c r="BC11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>106</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:85">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -1436,8 +1882,38 @@
       <c r="BC12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:58">
+      <c r="BF12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -1492,8 +1968,38 @@
       <c r="BC13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:58">
+      <c r="BF13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -1546,10 +2052,40 @@
         <v>65</v>
       </c>
       <c r="BC14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
+        <v>107</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1604,8 +2140,38 @@
       <c r="BC15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:58">
+      <c r="BF15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:85">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -1660,8 +2226,38 @@
       <c r="BC16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="4:55">
+      <c r="BF16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="4:85">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -1705,10 +2301,40 @@
         <v>16</v>
       </c>
       <c r="BC17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="4:55">
+        <v>108</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="4:85">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -1760,8 +2386,38 @@
       <c r="BC18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="4:55">
+      <c r="BF18" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>65</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:85">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -1774,8 +2430,29 @@
       <c r="BC19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="4:55">
+      <c r="BF19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="4:85">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -1816,10 +2493,40 @@
         <v>87</v>
       </c>
       <c r="BC20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="4:55">
+        <v>109</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>167</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="4:85">
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -1832,8 +2539,29 @@
       <c r="BC21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="4:55">
+      <c r="BF21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:85">
       <c r="D22" t="s">
         <v>18</v>
       </c>
@@ -1847,21 +2575,60 @@
         <v>37</v>
       </c>
       <c r="AZ22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="4:55">
+      <c r="BF22" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>65</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:85">
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="P23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="4:55">
+      <c r="BI23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="4:85">
       <c r="D24" t="s">
         <v>13</v>
       </c>
@@ -1871,18 +2638,144 @@
       <c r="BC24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="4:55">
+      <c r="BF24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="4:85">
       <c r="P25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="4:55">
+      <c r="BI25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="4:85">
       <c r="P26" t="s">
         <v>13</v>
       </c>
       <c r="BC26" t="s">
         <v>37</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>66</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="4:85">
+      <c r="BL27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="4:85">
+      <c r="BI28" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="4:85">
+      <c r="BL29" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="4:85">
+      <c r="BI30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="4:85">
+      <c r="BL32" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="64:82">
+      <c r="BL34" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77430490-8D74-E745-87E5-F376B8C79918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CB0F0-AEB4-4F4B-9D5D-A5FE3E1EE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="181">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,10 @@
     <t>loss: 1.117624</t>
   </si>
   <si>
+    <t>kaggle:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kaggle:0.69513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,6 +687,29 @@
   <si>
     <t>kaggle:0.73128</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.ReLU(),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.805360 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.586446 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.727371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.902246 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.727</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
   <dimension ref="A1:CG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="CD8" sqref="CD8"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1187,40 +1214,43 @@
         <v>95</v>
       </c>
       <c r="AT2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AW2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AZ2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BC2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BF2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BI2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BL2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BR2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BU2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CA2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CD2" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:85">
@@ -1267,40 +1297,43 @@
         <v>96</v>
       </c>
       <c r="AT3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AZ3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BC3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BI3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BL3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BO3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BR3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BU3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CA3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CD3" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:85">
@@ -1347,40 +1380,43 @@
         <v>97</v>
       </c>
       <c r="AT4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AW4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AZ4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BC4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BF4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BI4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BL4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BO4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BR4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BU4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CA4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CD4" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:85">
@@ -1427,40 +1463,43 @@
         <v>98</v>
       </c>
       <c r="AT5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AW5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AZ5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BC5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BF5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BI5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BO5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BR5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BU5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CA5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CD5" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:85">
@@ -1504,40 +1543,43 @@
         <v>94</v>
       </c>
       <c r="AT6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AW6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AZ6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BC6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BF6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BI6" t="s">
         <v>94</v>
       </c>
       <c r="BL6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BO6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BU6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CA6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CD6" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:85">
@@ -1560,13 +1602,16 @@
         <v>92</v>
       </c>
       <c r="AQ7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG7" t="s">
         <v>99</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>115</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:85">
@@ -1720,7 +1765,7 @@
         <v>64</v>
       </c>
       <c r="BO10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BR10" t="s">
         <v>64</v>
@@ -1738,7 +1783,7 @@
         <v>64</v>
       </c>
       <c r="CG10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:85">
@@ -1794,37 +1839,37 @@
         <v>16</v>
       </c>
       <c r="BC11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BF11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BO11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR11" t="s">
         <v>16</v>
       </c>
       <c r="BU11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BX11" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="CA11" t="s">
         <v>16</v>
       </c>
       <c r="CD11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CG11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:85">
@@ -1886,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="BI12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BL12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BO12" t="s">
         <v>16</v>
@@ -1898,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="BU12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BX12" t="s">
         <v>65</v>
@@ -1907,7 +1952,7 @@
         <v>65</v>
       </c>
       <c r="CD12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CG12" t="s">
         <v>16</v>
@@ -1978,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="BO13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BR13" t="s">
         <v>16</v>
@@ -1996,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="CG13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:85">
@@ -2052,10 +2097,10 @@
         <v>65</v>
       </c>
       <c r="BC14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BF14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI14" t="s">
         <v>65</v>
@@ -2064,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="BO14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR14" t="s">
         <v>65</v>
@@ -2082,7 +2127,7 @@
         <v>65</v>
       </c>
       <c r="CG14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:85">
@@ -2144,10 +2189,10 @@
         <v>16</v>
       </c>
       <c r="BI15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BO15" t="s">
         <v>16</v>
@@ -2156,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="BU15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BX15" t="s">
         <v>16</v>
@@ -2165,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="CD15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CG15" t="s">
         <v>16</v>
@@ -2230,19 +2275,19 @@
         <v>65</v>
       </c>
       <c r="BI16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BL16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BO16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BR16" t="s">
         <v>66</v>
       </c>
       <c r="BU16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BX16" t="s">
         <v>66</v>
@@ -2251,10 +2296,10 @@
         <v>66</v>
       </c>
       <c r="CD16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CG16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="4:85">
@@ -2301,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="BC17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI17" t="s">
         <v>16</v>
@@ -2313,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="BO17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR17" t="s">
         <v>16</v>
@@ -2331,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="CG17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="4:85">
@@ -2434,22 +2479,22 @@
         <v>66</v>
       </c>
       <c r="BI19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BO19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CD19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CG19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="4:85">
@@ -2493,37 +2538,37 @@
         <v>87</v>
       </c>
       <c r="BC20" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI20" t="s">
         <v>109</v>
       </c>
-      <c r="BF20" t="s">
-        <v>122</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>108</v>
-      </c>
       <c r="BL20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BO20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BR20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BU20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BX20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CA20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CD20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CG20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="4:85">
@@ -2575,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="AZ22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="s">
         <v>13</v>
@@ -2596,10 +2641,10 @@
         <v>65</v>
       </c>
       <c r="BX22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CA22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CD22" t="s">
         <v>65</v>
@@ -2616,16 +2661,16 @@
         <v>16</v>
       </c>
       <c r="BI23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BU23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CD23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="4:85">
@@ -2642,22 +2687,22 @@
         <v>87</v>
       </c>
       <c r="BI24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BL24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BO24" t="s">
         <v>87</v>
       </c>
       <c r="BU24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CD24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CG24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="4:85">
@@ -2685,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="BF26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI26" t="s">
         <v>13</v>
@@ -2694,7 +2739,7 @@
         <v>66</v>
       </c>
       <c r="BO26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU26" t="s">
         <v>66</v>
@@ -2703,18 +2748,18 @@
         <v>66</v>
       </c>
       <c r="CG26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="4:85">
       <c r="BL27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BU27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CD27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="4:85">
@@ -2722,13 +2767,13 @@
         <v>87</v>
       </c>
       <c r="BL28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BU28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CD28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="4:85">
@@ -2764,18 +2809,18 @@
         <v>87</v>
       </c>
       <c r="CD32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="64:82">
       <c r="BL34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CD34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CB0F0-AEB4-4F4B-9D5D-A5FE3E1EE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724A27A-067C-BF4C-92D0-2210BDA45F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -406,10 +406,6 @@
     <t>loss: 1.117624</t>
   </si>
   <si>
-    <t>kaggle:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kaggle:0.69513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +706,10 @@
   </si>
   <si>
     <t>saving model with acc 0.727</t>
+  </si>
+  <si>
+    <t>kaggle:0.72748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,43 +1214,43 @@
         <v>95</v>
       </c>
       <c r="AT2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AW2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BC2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BI2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BL2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BR2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BU2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CA2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CD2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CG2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:85">
@@ -1297,43 +1297,43 @@
         <v>96</v>
       </c>
       <c r="AT3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BC3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BI3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BL3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BO3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BR3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CA3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CG3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:85">
@@ -1380,43 +1380,43 @@
         <v>97</v>
       </c>
       <c r="AT4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AZ4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BC4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BF4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BI4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BL4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BO4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BR4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BU4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CA4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CD4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CG4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:85">
@@ -1463,43 +1463,43 @@
         <v>98</v>
       </c>
       <c r="AT5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AW5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AZ5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BC5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BI5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BO5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BR5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BU5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CA5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CD5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CG5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:85">
@@ -1543,43 +1543,43 @@
         <v>94</v>
       </c>
       <c r="AT6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AW6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AZ6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BC6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BF6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BI6" t="s">
         <v>94</v>
       </c>
       <c r="BL6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BO6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BR6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BU6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CA6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CD6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CG6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:85">
@@ -1602,16 +1602,16 @@
         <v>92</v>
       </c>
       <c r="AQ7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CD7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CG7" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:85">
@@ -1765,7 +1765,7 @@
         <v>64</v>
       </c>
       <c r="BO10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR10" t="s">
         <v>64</v>
@@ -1783,7 +1783,7 @@
         <v>64</v>
       </c>
       <c r="CG10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:85">
@@ -1839,37 +1839,37 @@
         <v>16</v>
       </c>
       <c r="BC11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BO11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BR11" t="s">
         <v>16</v>
       </c>
       <c r="BU11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BX11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CA11" t="s">
         <v>16</v>
       </c>
       <c r="CD11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CG11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:85">
@@ -1931,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="BI12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BL12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BO12" t="s">
         <v>16</v>
@@ -1943,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="BU12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BX12" t="s">
         <v>65</v>
@@ -1952,7 +1952,7 @@
         <v>65</v>
       </c>
       <c r="CD12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG12" t="s">
         <v>16</v>
@@ -2023,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="BO13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR13" t="s">
         <v>16</v>
@@ -2041,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="CG13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:85">
@@ -2097,10 +2097,10 @@
         <v>65</v>
       </c>
       <c r="BC14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI14" t="s">
         <v>65</v>
@@ -2109,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="BO14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BR14" t="s">
         <v>65</v>
@@ -2127,7 +2127,7 @@
         <v>65</v>
       </c>
       <c r="CG14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:85">
@@ -2189,10 +2189,10 @@
         <v>16</v>
       </c>
       <c r="BI15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BO15" t="s">
         <v>16</v>
@@ -2201,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="BU15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BX15" t="s">
         <v>16</v>
@@ -2210,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="CD15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CG15" t="s">
         <v>16</v>
@@ -2275,19 +2275,19 @@
         <v>65</v>
       </c>
       <c r="BI16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BO16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR16" t="s">
         <v>66</v>
       </c>
       <c r="BU16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BX16" t="s">
         <v>66</v>
@@ -2296,10 +2296,10 @@
         <v>66</v>
       </c>
       <c r="CD16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="4:85">
@@ -2346,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="BC17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI17" t="s">
         <v>16</v>
@@ -2358,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="BO17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BR17" t="s">
         <v>16</v>
@@ -2376,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="CG17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="4:85">
@@ -2479,22 +2479,22 @@
         <v>66</v>
       </c>
       <c r="BI19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BO19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CD19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CG19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="4:85">
@@ -2538,37 +2538,37 @@
         <v>87</v>
       </c>
       <c r="BC20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BF20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI20" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU20" t="s">
         <v>109</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BX20" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>167</v>
+      </c>
+      <c r="CD20" t="s">
         <v>109</v>
       </c>
-      <c r="BO20" t="s">
-        <v>123</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>148</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>168</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>110</v>
-      </c>
       <c r="CG20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="4:85">
@@ -2620,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="AZ22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC22" t="s">
         <v>13</v>
@@ -2641,10 +2641,10 @@
         <v>65</v>
       </c>
       <c r="BX22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CD22" t="s">
         <v>65</v>
@@ -2661,16 +2661,16 @@
         <v>16</v>
       </c>
       <c r="BI23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CD23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="4:85">
@@ -2687,22 +2687,22 @@
         <v>87</v>
       </c>
       <c r="BI24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BO24" t="s">
         <v>87</v>
       </c>
       <c r="BU24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CD24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CG24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="4:85">
@@ -2730,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="BF26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI26" t="s">
         <v>13</v>
@@ -2739,7 +2739,7 @@
         <v>66</v>
       </c>
       <c r="BO26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU26" t="s">
         <v>66</v>
@@ -2748,18 +2748,18 @@
         <v>66</v>
       </c>
       <c r="CG26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="4:85">
       <c r="BL27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CD27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="4:85">
@@ -2767,13 +2767,13 @@
         <v>87</v>
       </c>
       <c r="BL28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BU28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CD28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="4:85">
@@ -2809,18 +2809,18 @@
         <v>87</v>
       </c>
       <c r="CD32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="64:82">
       <c r="BL34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CD34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A650FFF-2331-E944-8569-16281A5924D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2D095-AD29-6549-BAC2-87869687EEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="218">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,22 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Train Acc: 0.480644 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loss: 1.772230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Val Acc: 0.469427 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">loss: 1.817974 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>saving model with acc 0.469</t>
   </si>
   <si>
@@ -107,10 +91,6 @@
     <t>nn.Linear(1700, output_dim),</t>
   </si>
   <si>
-    <t>kaggle:0.47341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Train Acc: 0.718025 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,25 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Train Acc: 0.733684 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 0.838028 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Val Acc: 0.732378 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">loss: 0.840478 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saving model with acc 0.732</t>
-  </si>
-  <si>
     <t>Val Acc: 0.707374</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,14 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn.BatchNorm1d(2000),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn.Dropout(p=0.2),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Train Acc: 0.779256 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,10 +778,6 @@
     <t>saving model with acc 0.726</t>
   </si>
   <si>
-    <t>nn.BatchNorm1d(3000),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Train Acc: 0.479256 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,6 +791,64 @@
   </si>
   <si>
     <t xml:space="preserve">loss: 1.823825 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.Linear(input_dim, output_dim),</t>
+  </si>
+  <si>
+    <t>hidden_dim = 2000</t>
+  </si>
+  <si>
+    <t>hidden_layers = 5</t>
+  </si>
+  <si>
+    <t>concat_nframes = 21</t>
+  </si>
+  <si>
+    <t>batch_size = 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.748686 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.769757 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.738923 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.821655 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.739</t>
+  </si>
+  <si>
+    <t>hidden_layers = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_dim = 3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.486203 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.750067 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.471475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.814500 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1216,7 @@
   <dimension ref="A1:DB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1315,13 +1322,13 @@
         <v>31</v>
       </c>
       <c r="CV1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="CY1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="DB1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:106">
@@ -1329,97 +1336,97 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
       <c r="AH2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AN2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL2" t="s">
         <v>128</v>
       </c>
-      <c r="AW2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>133</v>
-      </c>
       <c r="BO2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU2" t="s">
         <v>143</v>
       </c>
-      <c r="BR2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CA2" t="s">
         <v>148</v>
       </c>
-      <c r="BX2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>153</v>
-      </c>
       <c r="CD2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="CG2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="CJ2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="CM2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="CP2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="CS2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:106">
@@ -1427,97 +1434,97 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" t="s">
-        <v>47</v>
-      </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
       <c r="AH3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AT3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL3" t="s">
         <v>129</v>
       </c>
-      <c r="AW3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>134</v>
-      </c>
       <c r="BO3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU3" t="s">
         <v>144</v>
       </c>
-      <c r="BR3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BU3" t="s">
+      <c r="BX3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA3" t="s">
         <v>149</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CD3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>173</v>
       </c>
-      <c r="CA3" t="s">
-        <v>154</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>178</v>
-      </c>
       <c r="CM3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="CP3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="CS3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:106">
@@ -1525,97 +1532,97 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" t="s">
-        <v>48</v>
-      </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AB4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" t="s">
-        <v>67</v>
-      </c>
       <c r="AH4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AQ4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AT4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL4" t="s">
         <v>130</v>
       </c>
-      <c r="AW4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL4" t="s">
+      <c r="BO4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR4" t="s">
         <v>135</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BU4" t="s">
         <v>145</v>
       </c>
-      <c r="BR4" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU4" t="s">
+      <c r="BX4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA4" t="s">
         <v>150</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CD4" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>163</v>
+      </c>
+      <c r="CJ4" t="s">
         <v>174</v>
       </c>
-      <c r="CA4" t="s">
-        <v>155</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>161</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>179</v>
-      </c>
       <c r="CM4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="CP4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CS4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:106">
@@ -1623,97 +1630,97 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" t="s">
-        <v>49</v>
-      </c>
       <c r="Y5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" t="s">
-        <v>68</v>
-      </c>
       <c r="AH5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AN5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AQ5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AT5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL5" t="s">
         <v>131</v>
       </c>
-      <c r="AW5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL5" t="s">
+      <c r="BO5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" t="s">
         <v>136</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BU5" t="s">
         <v>146</v>
       </c>
-      <c r="BR5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU5" t="s">
+      <c r="BX5" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA5" t="s">
         <v>151</v>
       </c>
-      <c r="BX5" t="s">
+      <c r="CD5" t="s">
+        <v>158</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>175</v>
       </c>
-      <c r="CA5" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>180</v>
-      </c>
       <c r="CM5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="CP5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="CS5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:106">
@@ -1721,134 +1728,131 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" t="s">
         <v>64</v>
       </c>
-      <c r="AE6" t="s">
-        <v>69</v>
-      </c>
       <c r="AH6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AT6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL6" t="s">
         <v>132</v>
       </c>
-      <c r="AW6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>137</v>
-      </c>
       <c r="BO6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU6" t="s">
         <v>147</v>
       </c>
-      <c r="BR6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU6" t="s">
+      <c r="BX6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA6" t="s">
         <v>152</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="CD6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>176</v>
       </c>
-      <c r="CA6" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>170</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>181</v>
-      </c>
       <c r="CM6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="CP6" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="CS6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:106">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AQ7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AZ7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="CD7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="CG7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CJ7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="D9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -1896,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="BF9" t="s">
         <v>9</v>
@@ -1943,100 +1947,100 @@
     </row>
     <row r="10" spans="1:106">
       <c r="D10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CM10" t="s">
         <v>202</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>55</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>55</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>55</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>55</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>124</v>
-      </c>
       <c r="CP10" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="CS10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:106">
@@ -2086,46 +2090,46 @@
         <v>10</v>
       </c>
       <c r="BC11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BF11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BI11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BL11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BO11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BR11" t="s">
         <v>10</v>
       </c>
       <c r="BU11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BX11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="CA11" t="s">
         <v>10</v>
       </c>
       <c r="CD11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="CG11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="CJ11" t="s">
         <v>10</v>
       </c>
       <c r="CM11" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="CP11" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="CS11" t="s">
         <v>10</v>
@@ -2133,49 +2137,49 @@
     </row>
     <row r="12" spans="1:106">
       <c r="J12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AT12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="s">
         <v>10</v>
@@ -2184,43 +2188,43 @@
         <v>10</v>
       </c>
       <c r="BI12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BL12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BO12" t="s">
         <v>10</v>
       </c>
       <c r="BR12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BU12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BX12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CA12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CD12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="CG12" t="s">
         <v>10</v>
       </c>
       <c r="CJ12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CM12" t="s">
         <v>10</v>
       </c>
       <c r="CP12" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="CS12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:106">
@@ -2270,10 +2274,10 @@
         <v>10</v>
       </c>
       <c r="BC13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BF13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BI13" t="s">
         <v>10</v>
@@ -2282,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="BO13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="BR13" t="s">
         <v>10</v>
@@ -2300,13 +2304,13 @@
         <v>10</v>
       </c>
       <c r="CG13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="CJ13" t="s">
         <v>10</v>
       </c>
       <c r="CM13" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="CP13" t="s">
         <v>10</v>
@@ -2317,94 +2321,91 @@
     </row>
     <row r="14" spans="1:106">
       <c r="J14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AQ14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AT14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BF14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BI14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BL14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BO14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BR14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BU14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BX14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CA14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CD14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CG14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="CJ14" t="s">
-        <v>56</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="CP14" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="CS14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:106">
@@ -2460,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="BI15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BL15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BO15" t="s">
         <v>10</v>
@@ -2472,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="BU15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BX15" t="s">
         <v>10</v>
@@ -2481,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="CD15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="CG15" t="s">
         <v>10</v>
@@ -2490,10 +2491,7 @@
         <v>10</v>
       </c>
       <c r="CM15" t="s">
-        <v>10</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="CS15" t="s">
         <v>10</v>
@@ -2507,88 +2505,88 @@
         <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AB16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AE16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AK16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AN16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AQ16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AT16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AW16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AZ16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BC16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BF16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BI16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BL16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BO16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="BR16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BU16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BX16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CA16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CD16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="CG16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="CJ16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CM16" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="CP16" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="CS16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:97">
@@ -2632,10 +2630,10 @@
         <v>10</v>
       </c>
       <c r="BC17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BF17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BI17" t="s">
         <v>10</v>
@@ -2644,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="BO17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BR17" t="s">
         <v>10</v>
@@ -2662,16 +2660,13 @@
         <v>10</v>
       </c>
       <c r="CG17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="CJ17" t="s">
         <v>10</v>
       </c>
-      <c r="CM17" t="s">
-        <v>125</v>
-      </c>
       <c r="CP17" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="CS17" t="s">
         <v>10</v>
@@ -2679,16 +2674,16 @@
     </row>
     <row r="18" spans="10:97">
       <c r="J18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V18" t="s">
         <v>8</v>
@@ -2730,10 +2725,10 @@
         <v>10</v>
       </c>
       <c r="BI18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BL18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BO18" t="s">
         <v>10</v>
@@ -2742,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="BU18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BX18" t="s">
         <v>8</v>
@@ -2751,19 +2746,13 @@
         <v>8</v>
       </c>
       <c r="CD18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CG18" t="s">
         <v>10</v>
       </c>
       <c r="CJ18" t="s">
         <v>8</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>10</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>56</v>
       </c>
       <c r="CS18" t="s">
         <v>8</v>
@@ -2777,117 +2766,111 @@
         <v>10</v>
       </c>
       <c r="BC19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BF19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BI19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BL19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BO19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="BU19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="CD19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="CG19" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="CP19" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="10:97">
       <c r="M20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AE20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AH20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AN20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AQ20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AT20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AW20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AZ20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BC20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BI20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BL20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BO20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BR20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BU20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BX20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="CA20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="CD20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="CG20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="CJ20" t="s">
-        <v>177</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="CP20" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="CS20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="10:97">
@@ -2921,25 +2904,19 @@
       <c r="CG21" t="s">
         <v>10</v>
       </c>
-      <c r="CM21" t="s">
-        <v>10</v>
-      </c>
-      <c r="CP21" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="22" spans="10:97">
       <c r="P22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S22" t="s">
         <v>8</v>
       </c>
       <c r="AW22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BC22" t="s">
         <v>8</v>
@@ -2948,40 +2925,34 @@
         <v>8</v>
       </c>
       <c r="BI22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BL22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BO22" t="s">
         <v>8</v>
       </c>
       <c r="BU22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BX22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CA22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CD22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CG22" t="s">
         <v>8</v>
       </c>
       <c r="CJ22" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM22" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP22" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="CS22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="10:97">
@@ -2989,54 +2960,48 @@
         <v>10</v>
       </c>
       <c r="BI23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BL23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="BU23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="CD23" t="s">
-        <v>112</v>
-      </c>
-      <c r="CP23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="10:97">
       <c r="P24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BF24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BI24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BL24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BO24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BU24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG24" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="CM24" t="s">
-        <v>158</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="10:97">
@@ -3053,9 +3018,6 @@
         <v>10</v>
       </c>
       <c r="CD25" t="s">
-        <v>10</v>
-      </c>
-      <c r="CP25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3064,65 +3026,56 @@
         <v>8</v>
       </c>
       <c r="BC26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BF26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BI26" t="s">
         <v>8</v>
       </c>
       <c r="BL26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BO26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BU26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CD26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CG26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CM26" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP26" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="10:97">
       <c r="BL27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BU27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="CD27" t="s">
-        <v>113</v>
-      </c>
-      <c r="CP27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="10:97">
       <c r="BI28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BL28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BU28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD28" t="s">
-        <v>123</v>
-      </c>
-      <c r="CP28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="10:97">
@@ -3135,13 +3088,10 @@
       <c r="CD29" t="s">
         <v>10</v>
       </c>
-      <c r="CP29" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="30" spans="10:97">
       <c r="BI30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BL30" t="s">
         <v>8</v>
@@ -3150,38 +3100,29 @@
         <v>8</v>
       </c>
       <c r="CD30" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="10:97">
       <c r="BL32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BU32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="CD32" t="s">
-        <v>138</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="34" spans="64:94">
+    <row r="34" spans="64:82">
       <c r="BL34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BU34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CD34" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2D095-AD29-6549-BAC2-87869687EEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770FDAF-4F17-F345-A0A3-3F14CA7175D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="229">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>report2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>report2c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,6 +755,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nn.Dropout(p=0.2),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Train Acc: 0.779256 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,6 +849,48 @@
   </si>
   <si>
     <t xml:space="preserve">loss: 1.814500 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.444727 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 1.950550 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.452864 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.904437 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_layers = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_dim = 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.25),</t>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.5),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.Dropout(p=0.75),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,15 +1255,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:DB34"/>
+  <dimension ref="A1:CS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:97">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,17 +1363,8 @@
       <c r="CS1">
         <v>31</v>
       </c>
-      <c r="CV1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>181</v>
-      </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:97">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1426,10 +1459,10 @@
         <v>207</v>
       </c>
       <c r="CS2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:97">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1524,10 +1557,10 @@
         <v>208</v>
       </c>
       <c r="CS3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:97">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1622,10 +1655,10 @@
         <v>209</v>
       </c>
       <c r="CS4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:97">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1720,10 +1753,10 @@
         <v>210</v>
       </c>
       <c r="CS5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:97">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1815,10 +1848,10 @@
         <v>211</v>
       </c>
       <c r="CS6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:106">
+    <row r="7" spans="1:97">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1847,12 +1880,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:106">
+    <row r="9" spans="1:97">
       <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="s">
         <v>190</v>
-      </c>
-      <c r="G9" t="s">
-        <v>191</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -1900,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BF9" t="s">
         <v>9</v>
@@ -1945,12 +1978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:106">
+    <row r="10" spans="1:97">
       <c r="D10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -2043,7 +2076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:106">
+    <row r="11" spans="1:97">
       <c r="J11" t="s">
         <v>10</v>
       </c>
@@ -2135,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:106">
+    <row r="12" spans="1:97">
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -2221,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="CP12" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="CS12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:106">
+    <row r="13" spans="1:97">
       <c r="J13" t="s">
         <v>10</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:106">
+    <row r="14" spans="1:97">
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -2408,7 +2441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:106">
+    <row r="15" spans="1:97">
       <c r="J15" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:106">
+    <row r="16" spans="1:97">
       <c r="J16" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2622,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="10:97">
+    <row r="17" spans="1:97">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
       <c r="P17" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2714,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="10:97">
+    <row r="18" spans="1:97">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
@@ -2758,7 +2803,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="10:97">
+    <row r="19" spans="1:97">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
       <c r="P19" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2841,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="10:97">
+    <row r="20" spans="1:97">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
       <c r="M20" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +2924,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="10:97">
+    <row r="21" spans="1:97">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
       <c r="P21" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +2959,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="10:97">
+    <row r="22" spans="1:97">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
       <c r="P22" t="s">
         <v>14</v>
       </c>
@@ -2955,7 +3012,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="10:97">
+    <row r="23" spans="1:97">
       <c r="P23" t="s">
         <v>10</v>
       </c>
@@ -2972,7 +3029,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="10:97">
+    <row r="24" spans="1:97">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
       <c r="P24" t="s">
         <v>15</v>
       </c>
@@ -3004,7 +3070,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="10:97">
+    <row r="25" spans="1:97">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
       <c r="P25" t="s">
         <v>10</v>
       </c>
@@ -3021,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="10:97">
+    <row r="26" spans="1:97">
       <c r="P26" t="s">
         <v>8</v>
       </c>
@@ -3053,7 +3128,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="10:97">
+    <row r="27" spans="1:97">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
       <c r="BL27" t="s">
         <v>108</v>
       </c>
@@ -3064,7 +3148,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="10:97">
+    <row r="28" spans="1:97">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
       <c r="BI28" t="s">
         <v>73</v>
       </c>
@@ -3078,7 +3171,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="10:97">
+    <row r="29" spans="1:97">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>228</v>
+      </c>
       <c r="BL29" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3191,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="10:97">
+    <row r="30" spans="1:97">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
       <c r="BI30" t="s">
         <v>23</v>
       </c>
@@ -3103,7 +3214,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="10:97">
+    <row r="31" spans="1:97">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:97">
       <c r="BL32" t="s">
         <v>73</v>
       </c>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770FDAF-4F17-F345-A0A3-3F14CA7175D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC71EF-6327-ED43-A12A-8A66D1DDC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="239">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,44 @@
   <si>
     <t>nn.Dropout(p=0.75),</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.428065 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 2.034737 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.442886 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 1.946162 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.397076 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 2.184807 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.420696 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 2.035235 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.421</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1296,7 @@
   <dimension ref="A1:CS34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2718,6 +2756,12 @@
       <c r="A18" t="s">
         <v>220</v>
       </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" t="s">
+        <v>234</v>
+      </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
@@ -2807,6 +2851,12 @@
       <c r="A19" t="s">
         <v>221</v>
       </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" t="s">
+        <v>235</v>
+      </c>
       <c r="P19" t="s">
         <v>10</v>
       </c>
@@ -2845,6 +2895,12 @@
       <c r="A20" t="s">
         <v>222</v>
       </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
       <c r="M20" t="s">
         <v>23</v>
       </c>
@@ -2928,6 +2984,12 @@
       <c r="A21" t="s">
         <v>223</v>
       </c>
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" t="s">
+        <v>237</v>
+      </c>
       <c r="P21" t="s">
         <v>10</v>
       </c>
@@ -2962,6 +3024,12 @@
     <row r="22" spans="1:97">
       <c r="A22" t="s">
         <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s">
+        <v>238</v>
       </c>
       <c r="P22" t="s">
         <v>14</v>

--- a/HW2/HW2.xlsx
+++ b/HW2/HW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC71EF-6327-ED43-A12A-8A66D1DDC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BFBCF1-A0F0-6346-9630-3277C963CA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{377BD54F-8586-864D-BBC0-2884EEE57B8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="278">
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +930,150 @@
   </si>
   <si>
     <t>saving model with acc 0.421</t>
+  </si>
+  <si>
+    <t>batch_size = 64</t>
+  </si>
+  <si>
+    <t>concat_nframes = 23</t>
+  </si>
+  <si>
+    <t>Train Acc: 0.745761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: 0.812137 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.742094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss: 0.781483</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.786423 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.645292 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.729989 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 0.877395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn.BatchNorm1d(output_dim),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            nn.Linear(input_dim, output_dim),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            nn.BatchNorm1d(output_dim),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            nn.Dropout(p=0.2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            nn.ReLU(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden_dim = 2000               </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">num_epoch = 15                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size = 64        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concat_nframes = 29          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_layers = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden_dim = 3000               </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_nframes = 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_layers = 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.759</t>
+  </si>
+  <si>
+    <t>Train Acc: 0.831648</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.490670 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc: 0.758883 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 0.831720</t>
+  </si>
+  <si>
+    <t>kaggle:0.75922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">num_epoch = 20            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving model with acc 0.754</t>
+  </si>
+  <si>
+    <t>kaggle:0.75365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val Acc: 0.753633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 0.944213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Acc: 0.875936 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 0.353486 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1293,15 +1437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC355AD6-7871-C24A-9D48-3448D5D753F2}">
-  <dimension ref="A1:CS34"/>
+  <dimension ref="A1:DJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="CV1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="DA4" sqref="DA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:114">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1545,23 @@
       <c r="CS1">
         <v>31</v>
       </c>
+      <c r="CV1">
+        <v>32</v>
+      </c>
+      <c r="CY1">
+        <v>33</v>
+      </c>
+      <c r="DB1">
+        <v>34</v>
+      </c>
+      <c r="DF1">
+        <v>35</v>
+      </c>
+      <c r="DJ1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:114">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1499,8 +1658,20 @@
       <c r="CS2" t="s">
         <v>185</v>
       </c>
+      <c r="CV2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>246</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:114">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1597,8 +1768,20 @@
       <c r="CS3" t="s">
         <v>186</v>
       </c>
+      <c r="CV3" t="s">
+        <v>245</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>247</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>267</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:114">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1695,8 +1878,20 @@
       <c r="CS4" t="s">
         <v>182</v>
       </c>
+      <c r="CV4" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>248</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:114">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1793,8 +1988,20 @@
       <c r="CS5" t="s">
         <v>183</v>
       </c>
+      <c r="CV5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>269</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:114">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1888,8 +2095,20 @@
       <c r="CS6" t="s">
         <v>184</v>
       </c>
+      <c r="CV6" t="s">
+        <v>242</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>250</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>265</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:114">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1917,8 +2136,14 @@
       <c r="CJ7" t="s">
         <v>177</v>
       </c>
+      <c r="DB7" t="s">
+        <v>270</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:114">
       <c r="D9" t="s">
         <v>189</v>
       </c>
@@ -2015,8 +2240,23 @@
       <c r="CS9" t="s">
         <v>9</v>
       </c>
+      <c r="CV9" t="s">
+        <v>204</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>260</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>263</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:114">
       <c r="D10" t="s">
         <v>188</v>
       </c>
@@ -2113,8 +2353,23 @@
       <c r="CS10" t="s">
         <v>50</v>
       </c>
+      <c r="CV10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>213</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:114">
       <c r="J11" t="s">
         <v>10</v>
       </c>
@@ -2200,13 +2455,22 @@
         <v>108</v>
       </c>
       <c r="CP11" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="CS11" t="s">
         <v>10</v>
       </c>
+      <c r="DB11" t="s">
+        <v>258</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>271</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="12" spans="1:97">
+    <row r="12" spans="1:114">
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -2297,8 +2561,23 @@
       <c r="CS12" t="s">
         <v>51</v>
       </c>
+      <c r="CV12" t="s">
+        <v>239</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>239</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>261</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>261</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="13" spans="1:97">
+    <row r="13" spans="1:114">
       <c r="J13" t="s">
         <v>10</v>
       </c>
@@ -2389,8 +2668,23 @@
       <c r="CS13" t="s">
         <v>10</v>
       </c>
+      <c r="CV13" t="s">
+        <v>240</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>240</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>257</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>262</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="14" spans="1:97">
+    <row r="14" spans="1:114">
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:97">
+    <row r="15" spans="1:114">
       <c r="J15" t="s">
         <v>10</v>
       </c>
@@ -2567,8 +2861,14 @@
       <c r="CS15" t="s">
         <v>10</v>
       </c>
+      <c r="CV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:97">
+    <row r="16" spans="1:114">
       <c r="J16" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +2959,23 @@
       <c r="CS16" t="s">
         <v>52</v>
       </c>
+      <c r="CV16" t="s">
+        <v>202</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>202</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:97">
+    <row r="17" spans="1:114">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -2751,8 +3066,23 @@
       <c r="CS17" t="s">
         <v>10</v>
       </c>
+      <c r="CV17" t="s">
+        <v>251</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>252</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>252</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="18" spans="1:97">
+    <row r="18" spans="1:114">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -2846,8 +3176,23 @@
       <c r="CS18" t="s">
         <v>8</v>
       </c>
+      <c r="CV18" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>10</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>253</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>253</v>
+      </c>
+      <c r="DJ18" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="19" spans="1:97">
+    <row r="19" spans="1:114">
       <c r="A19" t="s">
         <v>221</v>
       </c>
@@ -2890,8 +3235,23 @@
       <c r="CP19" t="s">
         <v>205</v>
       </c>
+      <c r="CV19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>8</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>254</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>254</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="20" spans="1:97">
+    <row r="20" spans="1:114">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -2979,8 +3339,20 @@
       <c r="CS20" t="s">
         <v>153</v>
       </c>
+      <c r="CV20" t="s">
+        <v>8</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>255</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>255</v>
+      </c>
+      <c r="DJ20" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="21" spans="1:97">
+    <row r="21" spans="1:114">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -3020,8 +3392,17 @@
       <c r="CG21" t="s">
         <v>10</v>
       </c>
+      <c r="DB21" t="s">
+        <v>256</v>
+      </c>
+      <c r="DF21" t="s">
+        <v>256</v>
+      </c>
+      <c r="DJ21" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="22" spans="1:97">
+    <row r="22" spans="1:114">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3080,7 +3461,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:97">
+    <row r="23" spans="1:114">
       <c r="P23" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:97">
+    <row r="24" spans="1:114">
       <c r="A24" t="s">
         <v>224</v>
       </c>
@@ -3138,7 +3519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:97">
+    <row r="25" spans="1:114">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -3164,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:97">
+    <row r="26" spans="1:114">
       <c r="P26" t="s">
         <v>8</v>
       </c>
@@ -3196,7 +3577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:97">
+    <row r="27" spans="1:114">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:97">
+    <row r="28" spans="1:114">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -3239,7 +3620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:97">
+    <row r="29" spans="1:114">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -3259,7 +3640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:97">
+    <row r="30" spans="1:114">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:97">
+    <row r="31" spans="1:114">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3293,7 +3674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:97">
+    <row r="32" spans="1:114">
       <c r="BL32" t="s">
         <v>73</v>
       </c>
@@ -3318,5 +3699,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>